--- a/AAA/myRepo-master/cypress/fixtures/A1.xlsx
+++ b/AAA/myRepo-master/cypress/fixtures/A1.xlsx
@@ -372,7 +372,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>100248</v>
+        <v>131887</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
